--- a/comparison/chart_stats2.xlsx
+++ b/comparison/chart_stats2.xlsx
@@ -502,19 +502,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.3253706395626068</v>
+        <v>0.3566180169582367</v>
       </c>
       <c r="F2" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9760730862617493</v>
+        <v>0.9875531792640686</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9943400025367737</v>
+        <v>0.9957107305526733</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5834415555000305</v>
+        <v>0.6280855536460876</v>
       </c>
     </row>
     <row r="3">
@@ -539,19 +539,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.3253706395626068</v>
+        <v>0.3566180169582367</v>
       </c>
       <c r="F3" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9760431051254272</v>
+        <v>0.9875146746635437</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9943403005599976</v>
+        <v>0.9956727623939514</v>
       </c>
       <c r="I3" t="n">
-        <v>0.581462562084198</v>
+        <v>0.6259757876396179</v>
       </c>
     </row>
     <row r="4">
@@ -946,19 +946,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.3938959538936615</v>
+        <v>0.3566180169582367</v>
       </c>
       <c r="F14" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9760153889656067</v>
+        <v>0.9870476722717285</v>
       </c>
       <c r="H14" t="n">
-        <v>0.994584858417511</v>
+        <v>0.9956422448158264</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5908733010292053</v>
+        <v>0.6210781335830688</v>
       </c>
     </row>
     <row r="15">
@@ -983,19 +983,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.3253706395626068</v>
+        <v>0.3566180169582367</v>
       </c>
       <c r="F15" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9760101437568665</v>
+        <v>0.9874760508537292</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9943865537643433</v>
+        <v>0.9956650137901306</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5831988453865051</v>
+        <v>0.6272861957550049</v>
       </c>
     </row>
     <row r="16">
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F16" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9744994640350342</v>
+        <v>0.9867462515830994</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9939491748809814</v>
+        <v>0.9955164790153503</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5505607128143311</v>
+        <v>0.6124687194824219</v>
       </c>
     </row>
     <row r="17">
@@ -1057,19 +1057,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F17" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9729656577110291</v>
+        <v>0.9847830533981323</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9938528537750244</v>
+        <v>0.9953702688217163</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5435289144515991</v>
+        <v>0.6014050841331482</v>
       </c>
     </row>
     <row r="18">
@@ -1094,19 +1094,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F18" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9732421040534973</v>
+        <v>0.9851358532905579</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9938511848449707</v>
+        <v>0.9953490495681763</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5425758361816406</v>
+        <v>0.6018854975700378</v>
       </c>
     </row>
     <row r="19">
@@ -1131,19 +1131,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F19" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9732101559638977</v>
+        <v>0.9850755333900452</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9938622713088989</v>
+        <v>0.9953031539916992</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5402206778526306</v>
+        <v>0.5964425206184387</v>
       </c>
     </row>
     <row r="20">
@@ -1168,19 +1168,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F20" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9732029438018799</v>
+        <v>0.9850678443908691</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9938579201698303</v>
+        <v>0.9952822923660278</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5421357154846191</v>
+        <v>0.5977335572242737</v>
       </c>
     </row>
     <row r="21">
@@ -1205,19 +1205,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F21" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9744553565979004</v>
+        <v>0.9866965413093567</v>
       </c>
       <c r="H21" t="n">
-        <v>0.99393630027771</v>
+        <v>0.9954757690429688</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5541357398033142</v>
+        <v>0.6120224595069885</v>
       </c>
     </row>
     <row r="22">
@@ -1242,19 +1242,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F22" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9731743335723877</v>
+        <v>0.9850430488586426</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9939127564430237</v>
+        <v>0.9953712224960327</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5465403199195862</v>
+        <v>0.6036339998245239</v>
       </c>
     </row>
     <row r="23">
@@ -1279,19 +1279,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F23" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G23" t="n">
-        <v>0.973291277885437</v>
+        <v>0.9851820468902588</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9940005540847778</v>
+        <v>0.9954348206520081</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5503029227256775</v>
+        <v>0.6043376922607422</v>
       </c>
     </row>
     <row r="24">
@@ -1316,19 +1316,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F24" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G24" t="n">
-        <v>0.974340558052063</v>
+        <v>0.9865486025810242</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9940198659896851</v>
+        <v>0.9954402446746826</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5531741976737976</v>
+        <v>0.60708087682724</v>
       </c>
     </row>
     <row r="25">
@@ -1359,13 +1359,13 @@
         <v>1.00000011920929</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9742501974105835</v>
+        <v>0.9864234924316406</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9941593408584595</v>
+        <v>0.9954999685287476</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5606110692024231</v>
+        <v>0.6132960319519043</v>
       </c>
     </row>
     <row r="26">
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.3999998867511749</v>
+        <v>0.3999999165534973</v>
       </c>
       <c r="F26" t="n">
         <v>1.00000011920929</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9742136597633362</v>
+        <v>0.986379086971283</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9939423799514771</v>
+        <v>0.9955487847328186</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5501472353935242</v>
+        <v>0.6161782741546631</v>
       </c>
     </row>
   </sheetData>
